--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>10.25453270015645</v>
+        <v>4.429496077190999</v>
       </c>
       <c r="R2">
-        <v>92.29079430140801</v>
+        <v>39.86546469471899</v>
       </c>
       <c r="S2">
-        <v>0.004029339080572846</v>
+        <v>0.002389885681507129</v>
       </c>
       <c r="T2">
-        <v>0.004999532721102424</v>
+        <v>0.002741944647275455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>517.0220957557991</v>
+        <v>409.9122978249779</v>
       </c>
       <c r="R3">
-        <v>4653.198861802192</v>
+        <v>3689.210680424801</v>
       </c>
       <c r="S3">
-        <v>0.2031547801214515</v>
+        <v>0.2211636525179743</v>
       </c>
       <c r="T3">
-        <v>0.2520708608423116</v>
+        <v>0.2537437241814529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>1.120053559130667</v>
+        <v>1.049608155546</v>
       </c>
       <c r="R4">
-        <v>10.080482032176</v>
+        <v>9.446473399913998</v>
       </c>
       <c r="S4">
-        <v>0.0004401054353331041</v>
+        <v>0.000566304486654663</v>
       </c>
       <c r="T4">
-        <v>0.0005460750462257112</v>
+        <v>0.0006497279631097684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>161.460397105488</v>
+        <v>158.5423948648635</v>
       </c>
       <c r="R5">
-        <v>968.7623826329281</v>
+        <v>951.2543691891809</v>
       </c>
       <c r="S5">
-        <v>0.06344303607438183</v>
+        <v>0.08553979793558546</v>
       </c>
       <c r="T5">
-        <v>0.05247933195946694</v>
+        <v>0.06542722744534282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H6">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I6">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J6">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>5.547193998736001</v>
+        <v>0.9718776368099999</v>
       </c>
       <c r="R6">
-        <v>49.924745988624</v>
+        <v>8.746898731289999</v>
       </c>
       <c r="S6">
-        <v>0.0021796727574222</v>
+        <v>0.0005243658438596356</v>
       </c>
       <c r="T6">
-        <v>0.002704499436289333</v>
+        <v>0.0006016112527517631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>0.4049137899137778</v>
+        <v>0.2206069399468889</v>
       </c>
       <c r="R7">
-        <v>3.644224109224</v>
+        <v>1.985462459522</v>
       </c>
       <c r="S7">
-        <v>0.000159103784216082</v>
+        <v>0.0001190260376874556</v>
       </c>
       <c r="T7">
-        <v>0.0001974131636313998</v>
+        <v>0.0001365600076392407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
         <v>20.41530144600844</v>
@@ -948,10 +948,10 @@
         <v>183.737713014076</v>
       </c>
       <c r="S8">
-        <v>0.008021835256990517</v>
+        <v>0.01101485039363847</v>
       </c>
       <c r="T8">
-        <v>0.009953351417849757</v>
+        <v>0.0126374706167245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>0.04422679655866667</v>
+        <v>0.05227475977022222</v>
       </c>
       <c r="R9">
-        <v>0.398041169028</v>
+        <v>0.470472837932</v>
       </c>
       <c r="S9">
-        <v>1.737814535221693E-05</v>
+        <v>2.820426922204315E-05</v>
       </c>
       <c r="T9">
-        <v>2.156249563095359E-05</v>
+        <v>3.235909801967086E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J10">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>6.375477383963999</v>
+        <v>7.896056791446333</v>
       </c>
       <c r="R10">
-        <v>38.25286430378399</v>
+        <v>47.376340748678</v>
       </c>
       <c r="S10">
-        <v>0.002505132211448558</v>
+        <v>0.00426023022424973</v>
       </c>
       <c r="T10">
-        <v>0.002072215850023747</v>
+        <v>0.003258542322737405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J11">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>0.219038293708</v>
+        <v>0.04840346344666667</v>
       </c>
       <c r="R11">
-        <v>1.971344643372</v>
+        <v>0.43563117102</v>
       </c>
       <c r="S11">
-        <v>8.606726242787959E-05</v>
+        <v>2.611555405189589E-05</v>
       </c>
       <c r="T11">
-        <v>0.000106790738163123</v>
+        <v>2.996268993003512E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H12">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I12">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J12">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>5.013816517520445</v>
+        <v>4.395536567457111</v>
       </c>
       <c r="R12">
-        <v>45.124348657684</v>
+        <v>39.55982910711401</v>
       </c>
       <c r="S12">
-        <v>0.00197009141494654</v>
+        <v>0.002371563203137198</v>
       </c>
       <c r="T12">
-        <v>0.002444454610453858</v>
+        <v>0.002720923047003944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H13">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I13">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J13">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>252.7910339184851</v>
+        <v>406.7696331910236</v>
       </c>
       <c r="R13">
-        <v>2275.119305266366</v>
+        <v>3660.926698719212</v>
       </c>
       <c r="S13">
-        <v>0.09932981072561482</v>
+        <v>0.219468062527695</v>
       </c>
       <c r="T13">
-        <v>0.1232466737033758</v>
+        <v>0.25179835334895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H14">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I14">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J14">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.5476351969886667</v>
+        <v>1.041561150253778</v>
       </c>
       <c r="R14">
-        <v>4.928716772898</v>
+        <v>9.374050352284</v>
       </c>
       <c r="S14">
-        <v>0.0002151836622540565</v>
+        <v>0.0005619628138341533</v>
       </c>
       <c r="T14">
-        <v>0.0002669960852073191</v>
+        <v>0.0006447467095533597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H15">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I15">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J15">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>78.94390018577398</v>
+        <v>157.3269017460477</v>
       </c>
       <c r="R15">
-        <v>473.663401114644</v>
+        <v>943.961410476286</v>
       </c>
       <c r="S15">
-        <v>0.0310196233697249</v>
+        <v>0.08488399204931621</v>
       </c>
       <c r="T15">
-        <v>0.02565906698047778</v>
+        <v>0.06492561811358775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H16">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I16">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J16">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>2.712226262278</v>
+        <v>0.9644265661933334</v>
       </c>
       <c r="R16">
-        <v>24.410036360502</v>
+        <v>8.67983909574</v>
       </c>
       <c r="S16">
-        <v>0.001065721822095904</v>
+        <v>0.0005203457010107989</v>
       </c>
       <c r="T16">
-        <v>0.001322328802470474</v>
+        <v>0.0005969988944072003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H17">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I17">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J17">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>14.23633258207467</v>
+        <v>1.720739937946</v>
       </c>
       <c r="R17">
-        <v>85.417995492448</v>
+        <v>10.324439627676</v>
       </c>
       <c r="S17">
-        <v>0.00559391762787112</v>
+        <v>0.0009284062267197002</v>
       </c>
       <c r="T17">
-        <v>0.004627222754642149</v>
+        <v>0.000710114435891046</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H18">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I18">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J18">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>717.7800025298586</v>
+        <v>159.239888608268</v>
       </c>
       <c r="R18">
-        <v>4306.680015179151</v>
+        <v>955.4393316496079</v>
       </c>
       <c r="S18">
-        <v>0.2820390845701932</v>
+        <v>0.08591612298052383</v>
       </c>
       <c r="T18">
-        <v>0.2332994077923714</v>
+        <v>0.06571506895190216</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H19">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I19">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J19">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>1.554966515176</v>
+        <v>0.4077445020759999</v>
       </c>
       <c r="R19">
-        <v>9.329799091056</v>
+        <v>2.446467012456</v>
       </c>
       <c r="S19">
-        <v>0.000610996866632961</v>
+        <v>0.0002199940422664624</v>
       </c>
       <c r="T19">
-        <v>0.0005054094093579006</v>
+        <v>0.0001682678774951876</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H20">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I20">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J20">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>224.154915610392</v>
+        <v>61.58945079698099</v>
       </c>
       <c r="R20">
-        <v>896.6196624415678</v>
+        <v>246.357803187924</v>
       </c>
       <c r="S20">
-        <v>0.08807774941881857</v>
+        <v>0.03322990787812945</v>
       </c>
       <c r="T20">
-        <v>0.04857125106238293</v>
+        <v>0.01694447725464873</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H21">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I21">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J21">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>7.701150405623999</v>
+        <v>0.37754828886</v>
       </c>
       <c r="R21">
-        <v>46.20690243374399</v>
+        <v>2.26528973316</v>
       </c>
       <c r="S21">
-        <v>0.003026032214444719</v>
+        <v>0.0002037020089644668</v>
       </c>
       <c r="T21">
-        <v>0.002503098195296018</v>
+        <v>0.000155806513380212</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H22">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I22">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J22">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>7.618850091185334</v>
+        <v>3.513841200839555</v>
       </c>
       <c r="R22">
-        <v>68.569650820668</v>
+        <v>31.624570807556</v>
       </c>
       <c r="S22">
-        <v>0.002993693746860908</v>
+        <v>0.001895854207032445</v>
       </c>
       <c r="T22">
-        <v>0.00371452229388026</v>
+        <v>0.002175136382134</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H23">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I23">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J23">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>384.1339197576313</v>
+        <v>325.1762041838497</v>
       </c>
       <c r="R23">
-        <v>3457.205277818682</v>
+        <v>2926.585837654648</v>
       </c>
       <c r="S23">
-        <v>0.1509386980675817</v>
+        <v>0.1754452291644531</v>
       </c>
       <c r="T23">
-        <v>0.1872820690390223</v>
+        <v>0.2012904260316406</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H24">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I24">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J24">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>0.832170554294</v>
+        <v>0.8326356581928889</v>
       </c>
       <c r="R24">
-        <v>7.489534988646</v>
+        <v>7.493720923735999</v>
       </c>
       <c r="S24">
-        <v>0.0003269868490514078</v>
+        <v>0.0004492393723236713</v>
       </c>
       <c r="T24">
-        <v>0.0004057195034998837</v>
+        <v>0.0005154177464720718</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H25">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I25">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J25">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>119.960859961098</v>
+        <v>125.7688887060073</v>
       </c>
       <c r="R25">
-        <v>719.7651597665879</v>
+        <v>754.613332236044</v>
       </c>
       <c r="S25">
-        <v>0.04713651955812712</v>
+        <v>0.0678572146943093</v>
       </c>
       <c r="T25">
-        <v>0.03899077361941906</v>
+        <v>0.05190226686010288</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H26">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I26">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J26">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>4.121420325906</v>
+        <v>0.7709734071066667</v>
       </c>
       <c r="R26">
-        <v>37.092782933154</v>
+        <v>6.93876066396</v>
       </c>
       <c r="S26">
-        <v>0.001619439956185128</v>
+        <v>0.0004159701858536128</v>
       </c>
       <c r="T26">
-        <v>0.002009372477447881</v>
+        <v>0.0004772476078471738</v>
       </c>
     </row>
   </sheetData>
